--- a/Sorption Experiments/RaFHY_pH7/RaFHY_pH7_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH7/RaFHY_pH7_NoScript.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaFHY_pH7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaFHY_pH7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId2"/>
-    <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId3"/>
-    <sheet name="Bottle Results" sheetId="5" r:id="rId4"/>
-    <sheet name="Averaged Results" sheetId="8" r:id="rId5"/>
-    <sheet name="Gamma Counter Cal" sheetId="7" r:id="rId6"/>
+    <sheet name="Calibration Data" sheetId="7" r:id="rId3"/>
+    <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId4"/>
+    <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scintillation Counter Results'!$A$1:$F$1</definedName>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="137">
   <si>
     <t>Parameters</t>
   </si>
@@ -265,21 +265,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -289,15 +280,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -385,15 +364,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -542,13 +515,25 @@
   </si>
   <si>
     <t>spH</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,14 +553,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -661,17 +638,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -684,7 +650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,7 +658,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -701,48 +667,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -753,9 +707,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,7 +1003,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,10 +1072,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>631.52245819489701</v>
+        <v>341.69636021701456</v>
       </c>
       <c r="C6">
-        <v>0.53167165791808602</v>
+        <v>0.1278314405168707</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1169,11 +1133,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>8484.2999999999993</v>
@@ -1189,11 +1153,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>8483.4</v>
@@ -1209,11 +1173,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>8563.2999999999993</v>
@@ -1229,11 +1193,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>8601.7999999999993</v>
@@ -1249,11 +1213,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>9242.4</v>
@@ -1269,11 +1233,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>9295.1</v>
@@ -1289,11 +1253,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>9221</v>
@@ -1309,11 +1273,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>9291.5</v>
@@ -1329,11 +1293,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>8807.1</v>
@@ -1349,11 +1313,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>8754.7000000000007</v>
@@ -1369,11 +1333,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>8924.7999999999993</v>
@@ -1389,11 +1353,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>8671.9</v>
@@ -1409,11 +1373,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>8125.3</v>
@@ -1429,11 +1393,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <v>8088.1</v>
@@ -1449,11 +1413,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <v>8123.2</v>
@@ -1469,11 +1433,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>8184.6</v>
@@ -1489,11 +1453,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="17">
         <v>42345.57916666667</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>102</v>
+      <c r="B18" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C18">
         <v>79.900000000000006</v>
@@ -1509,11 +1473,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>72.8</v>
@@ -1529,11 +1493,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>75.7</v>
@@ -1549,11 +1513,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>106.5</v>
@@ -1569,11 +1533,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>101.3</v>
@@ -1589,11 +1553,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>113.3</v>
@@ -1609,11 +1573,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>131.80000000000001</v>
@@ -1629,11 +1593,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>137</v>
@@ -1649,11 +1613,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>131.1</v>
@@ -1669,11 +1633,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>308.60000000000002</v>
@@ -1689,11 +1653,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <v>419.8</v>
@@ -1709,11 +1673,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>418.3</v>
@@ -1729,11 +1693,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>838.7</v>
@@ -1749,11 +1713,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C31">
         <v>841.1</v>
@@ -1769,11 +1733,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>734.4</v>
@@ -1789,11 +1753,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C33">
         <v>3949.6</v>
@@ -1809,11 +1773,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>4551.3</v>
@@ -1829,11 +1793,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>5036.3999999999996</v>
@@ -1849,11 +1813,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="17">
         <v>42374.613888888889</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>102</v>
+      <c r="B36" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C36">
         <v>83.2</v>
@@ -1869,11 +1833,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>82.2</v>
@@ -1889,11 +1853,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C38">
         <v>71.400000000000006</v>
@@ -1909,11 +1873,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>118.5</v>
@@ -1929,11 +1893,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="A40" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>128.9</v>
@@ -1949,11 +1913,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>134.9</v>
@@ -1969,11 +1933,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>120.4</v>
@@ -1989,11 +1953,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>180.4</v>
@@ -2009,11 +1973,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>185.2</v>
@@ -2029,11 +1993,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>657.6</v>
@@ -2049,11 +2013,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C46">
         <v>665.5</v>
@@ -2069,11 +2033,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>682.7</v>
@@ -2089,11 +2053,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+      <c r="A48" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>1472.5</v>
@@ -2109,11 +2073,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
+      <c r="A49" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>1472.1</v>
@@ -2129,11 +2093,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+      <c r="A50" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>1301.5</v>
@@ -2149,11 +2113,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>7518.9</v>
@@ -2169,11 +2133,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>8320.1</v>
@@ -2189,11 +2153,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>9468.5</v>
@@ -2209,11 +2173,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="17">
         <v>42382.73333333333</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>102</v>
+      <c r="B54" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C54">
         <v>83.2</v>
@@ -2229,11 +2193,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>81.099999999999994</v>
@@ -2249,11 +2213,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+      <c r="A56" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>75</v>
@@ -2269,11 +2233,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>123.3</v>
@@ -2289,11 +2253,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <v>130.1</v>
@@ -2309,11 +2273,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C59">
         <v>95.6</v>
@@ -2329,11 +2293,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>167.3</v>
@@ -2349,11 +2313,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>183.7</v>
@@ -2369,11 +2333,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C62">
         <v>193.5</v>
@@ -2389,11 +2353,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>659.3</v>
@@ -2409,11 +2373,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C64">
         <v>691</v>
@@ -2429,11 +2393,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+      <c r="A65" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C65">
         <v>684.1</v>
@@ -2449,11 +2413,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C66">
         <v>1478.1</v>
@@ -2469,11 +2433,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+      <c r="A67" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C67">
         <v>1461.7</v>
@@ -2489,11 +2453,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>1335.3</v>
@@ -2509,11 +2473,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C69">
         <v>7475.4</v>
@@ -2529,11 +2493,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C70">
         <v>8343</v>
@@ -2549,11 +2513,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C71">
         <v>9503.7000000000007</v>
@@ -2569,11 +2533,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="17">
         <v>42381.317361111112</v>
       </c>
-      <c r="B72" s="27" t="s">
-        <v>102</v>
+      <c r="B72" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C72">
         <v>87.1</v>
@@ -2589,11 +2553,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>76</v>
@@ -2609,11 +2573,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="A74" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <v>78.7</v>
@@ -2629,11 +2593,11 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>121.4</v>
@@ -2649,11 +2613,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C76">
         <v>136.80000000000001</v>
@@ -2669,11 +2633,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C77">
         <v>95.7</v>
@@ -2689,11 +2653,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C78">
         <v>164.3</v>
@@ -2709,11 +2673,11 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>178</v>
@@ -2729,11 +2693,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+      <c r="A80" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>182.7</v>
@@ -2749,11 +2713,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>664.7</v>
@@ -2769,11 +2733,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C82">
         <v>700.2</v>
@@ -2789,11 +2753,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>671.5</v>
@@ -2809,11 +2773,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+      <c r="A84" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>1474.4</v>
@@ -2829,11 +2793,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>1455</v>
@@ -2849,11 +2813,11 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C86">
         <v>1321.3</v>
@@ -2869,11 +2833,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
+      <c r="A87" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>7517.1</v>
@@ -2889,11 +2853,11 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+      <c r="A88" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>8374.5</v>
@@ -2909,11 +2873,11 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="17">
         <v>42381.317361111112</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <v>9419</v>
@@ -2934,11 +2898,2717 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2">
+        <v>69.266666666666666</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0713088258637899</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2/60</f>
+        <v>1.1544444444444444</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2/60</f>
+        <v>6.7855147097729829E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1574074074074073E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.1646065597239774</v>
+      </c>
+      <c r="L2">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2">
+        <v>213.53333333333333</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.5389670875898238</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
+        <v>3.5588888888888888</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5649451459830402E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.4640522875816994E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.1343954248366012E-4</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H7/100</f>
+        <v>8.599999999999999E-6</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
+        <v>1225.1400040000001</v>
+      </c>
+      <c r="K3">
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.2169279363331229</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>851.36666666666679</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.530584805000577</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>14.189444444444446</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20884308008334296</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.9815435847137763E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.5144502711856026E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <f>H7/20</f>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.591</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.6390707787022003</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1635.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32.620954410720707</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>27.261666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54368257351201177</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.2604166666666666E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.3201388888888891E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <f>H7/10</f>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>2.5382625946651718</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7998.833333333333</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50.234140670352431</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>133.3138888888889</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83723567783920716</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.0219907407407408E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.5444444444444447E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f>H7/2</f>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>17.992584891697263</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16057.133333333333</v>
+      </c>
+      <c r="C7" s="2">
+        <v>53.513259001171903</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>267.61888888888888</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89188765001953174</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.4872685185185185E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.9521990740740741E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>36.338054252297198</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>80635.3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>80.454997758225829</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1343.9216666666666</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3409166293037638</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.39049768518518518</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.6158564814814812E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <f>H7*5</f>
+        <v>4.3E-3</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>157.79476197869525</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>777.96958299445589</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="27"/>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="27"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="28"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="28"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="27"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="28"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="27"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="27"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="27"/>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="27"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="9">
+        <v>6</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+    </row>
+    <row r="44" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99913678675732565</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99827431865175353</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99792918238210437</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6387999840376106</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9">
+        <v>7</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2892.4062940883168</v>
+      </c>
+      <c r="F57" s="7">
+        <v>4.2028918326297353E-8</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7">
+        <v>34.816326778784465</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6.9632653557568931</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9">
+        <v>20175.408869177147</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
+      <c r="AE61" s="28"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="7">
+        <v>-2.6401241688634265</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.1701746549167438</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.2561795863295875</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.3703712687859205E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="9">
+        <v>410.84721429648386</v>
+      </c>
+      <c r="C63" s="9">
+        <v>7.6392495569503653</v>
+      </c>
+      <c r="D63" s="9">
+        <v>53.781096066260275</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.2028918326297353E-8</v>
+      </c>
+      <c r="F63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="G63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="H63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="I63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="28"/>
+      <c r="AE64" s="28"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="28"/>
+      <c r="AE65" s="28"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="28"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-2.1646065597239774</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.1646065597239774</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>-1.2169279363331229</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.5351279363331229</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="28"/>
+      <c r="AE71" s="28"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.6390707787022003</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.95192922129779967</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2.5382625946651718</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.64373740533482815</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>17.992584891697263</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-2.0825848916972625</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7">
+        <v>36.338054252297198</v>
+      </c>
+      <c r="C75" s="7">
+        <v>-4.5180542522971976</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>7</v>
+      </c>
+      <c r="B76" s="9">
+        <v>157.79476197869525</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1.3052380213047456</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,7 +5627,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -2966,21 +5636,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
+      <c r="A2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C2">
         <v>1.38916666666667</v>
@@ -2989,23 +5659,23 @@
         <v>9.6269250000000001E-2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <f>C2*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.29560420892245498</v>
-      </c>
-      <c r="G2">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D2+'Gamma Counter Cal'!$B$27</f>
-        <v>1.2547322877736602E-2</v>
+        <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.15978636230469831</v>
+      </c>
+      <c r="G2" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664736096379242</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
+      <c r="A3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1.3004166666666701</v>
@@ -3014,23 +5684,23 @@
         <v>9.3174854166666696E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <f>C3*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.27617397546956735</v>
-      </c>
-      <c r="G3">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D3+'Gamma Counter Cal'!$B$27</f>
-        <v>1.1869859965766925E-2</v>
+        <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14927689791135995</v>
+      </c>
+      <c r="G3" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664746591948781</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
+      <c r="A4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C4">
         <v>1.2533333333333301</v>
@@ -3039,23 +5709,23 @@
         <v>9.1430666666666702E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <f>C4*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.26586591734667248</v>
-      </c>
-      <c r="G4">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D4+'Gamma Counter Cal'!$B$27</f>
-        <v>1.1488001145365703E-2</v>
+        <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.1437014543599637</v>
+      </c>
+      <c r="G4" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664752160371034</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>124</v>
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1.95708333333333</v>
@@ -3064,23 +5734,23 @@
         <v>0.114391520833333</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5">
-        <f>C5*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.41993945867027449</v>
-      </c>
-      <c r="G5">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D5+'Gamma Counter Cal'!$B$27</f>
-        <v>1.6514871643799892E-2</v>
+        <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.22703706638037907</v>
+      </c>
+      <c r="G5" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266466895500715</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>124</v>
+      <c r="A6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C6">
         <v>2.07125</v>
@@ -3089,23 +5759,23 @@
         <v>0.11806125000000001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <f>C6*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.44493421907445935</v>
-      </c>
-      <c r="G6">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D6+'Gamma Counter Cal'!$B$27</f>
-        <v>1.7318293552726211E-2</v>
+        <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.24055628348730301</v>
+      </c>
+      <c r="G6" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664655462032207</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
+      <c r="A7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C7">
         <v>1.83125</v>
@@ -3114,23 +5784,23 @@
         <v>0.11138578125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <f>C7*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.39239048917369279</v>
-      </c>
-      <c r="G7">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D7+'Gamma Counter Cal'!$B$27</f>
-        <v>1.5856818440388675E-2</v>
+        <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.21213632343771197</v>
+      </c>
+      <c r="G7" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664683828479711</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
+      <c r="A8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C8">
         <v>2.4325000000000001</v>
@@ -3139,23 +5809,23 @@
         <v>0.1282535625</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <f>C8*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.52402347918550918</v>
-      </c>
-      <c r="G8">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D8+'Gamma Counter Cal'!$B$27</f>
-        <v>1.9549719032160406E-2</v>
+        <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.28333424418694786</v>
+      </c>
+      <c r="G8" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664612776510975</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>124</v>
+      <c r="A9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>2.8295833333333298</v>
@@ -3164,23 +5834,23 @@
         <v>0.13808366666666699</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <f>C9*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.6109578100803531</v>
-      </c>
-      <c r="G9">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D9+'Gamma Counter Cal'!$B$27</f>
-        <v>2.1701845441451036E-2</v>
+        <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.33035546281066314</v>
+      </c>
+      <c r="G9" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664565873387906</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>124</v>
+      <c r="A10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C10">
         <v>2.8854166666666701</v>
@@ -3189,23 +5859,23 @@
         <v>0.139942708333333</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10">
-        <f>C10*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>0.62318152502254687</v>
-      </c>
-      <c r="G10">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D10+'Gamma Counter Cal'!$B$27</f>
-        <v>2.210884953814924E-2</v>
+        <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.33696705073886746</v>
+      </c>
+      <c r="G10" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266455927978978</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
+      <c r="A11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C11">
         <v>9.5425000000000004</v>
@@ -3214,23 +5884,23 @@
         <v>0.26194162500000001</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <f>C11*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>2.0806314774957202</v>
-      </c>
-      <c r="G11">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D11+'Gamma Counter Cal'!$B$27</f>
-        <v>4.8818341727813762E-2</v>
+        <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.1252755606560825</v>
+      </c>
+      <c r="G11" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663775563155902</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>124</v>
+      <c r="A12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C12">
         <v>10.31875</v>
@@ -3239,23 +5909,23 @@
         <v>0.26673968749999999</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <f>C12*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>2.2505776038935119</v>
-      </c>
-      <c r="G12">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D12+'Gamma Counter Cal'!$B$27</f>
-        <v>4.9868792144676245E-2</v>
+        <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.2171963689414784</v>
+      </c>
+      <c r="G12" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663684493750599</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>124</v>
+      <c r="A13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C13">
         <v>10.2358333333333</v>
@@ -3264,23 +5934,23 @@
         <v>0.26536397916666699</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <f>C13*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>2.2324244749868161</v>
-      </c>
-      <c r="G13">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D13+'Gamma Counter Cal'!$B$27</f>
-        <v>4.9567605281805899E-2</v>
+        <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.2073776674660082</v>
+      </c>
+      <c r="G13" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663694218359542</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
+      <c r="A14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C14">
         <v>21.932083333333299</v>
@@ -3289,23 +5959,23 @@
         <v>0.39093938541666701</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14">
-        <f>C14*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>4.7931103118694889</v>
-      </c>
-      <c r="G14">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D14+'Gamma Counter Cal'!$B$27</f>
-        <v>7.7060106232551898E-2</v>
+        <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.5924066580077967</v>
+      </c>
+      <c r="G14" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662329901508643</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="C15">
         <v>21.791250000000002</v>
@@ -3314,23 +5984,23 @@
         <v>0.38897381250000002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15">
-        <f>C15*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>4.7622773592541163</v>
-      </c>
-      <c r="G15">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D15+'Gamma Counter Cal'!$B$27</f>
-        <v>7.6629779014078511E-2</v>
+        <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.5757296675620336</v>
+      </c>
+      <c r="G15" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662346239966407</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>124</v>
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C16">
         <v>19.5520833333333</v>
@@ -3339,23 +6009,23 @@
         <v>0.36904557291666701</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <f>C16*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>4.2720516570202198</v>
-      </c>
-      <c r="G16">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D16+'Gamma Counter Cal'!$B$27</f>
-        <v>7.226684552214345E-2</v>
+        <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.3105753875160189</v>
+      </c>
+      <c r="G16" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662606303709253</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
+      <c r="A17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C17">
         <v>110.254166666667</v>
@@ -3364,23 +6034,23 @@
         <v>0.882033333333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17">
-        <f>C17*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>24.129659024118183</v>
-      </c>
-      <c r="G17">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D17+'Gamma Counter Cal'!$B$27</f>
-        <v>0.18457638854602876</v>
+        <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>13.051198657299441</v>
+      </c>
+      <c r="G17" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1265251177055236</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
+      <c r="A18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C18">
         <v>123.287083333333</v>
@@ -3389,23 +6059,23 @@
         <v>0.92773530208333299</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18">
-        <f>C18*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>26.982984245586923</v>
-      </c>
-      <c r="G18">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D18+'Gamma Counter Cal'!$B$27</f>
-        <v>0.19458202147075074</v>
+        <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>14.594511036450678</v>
+      </c>
+      <c r="G18" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12651135479382222</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
+      <c r="A19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C19">
         <v>139.28166666666701</v>
@@ -3414,23 +6084,23 @@
         <v>0.98889983333333298</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19">
-        <f>C19*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>30.484713689511945</v>
-      </c>
-      <c r="G19">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D19+'Gamma Counter Cal'!$B$27</f>
-        <v>0.20797290734369656</v>
+        <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>16.488533617047374</v>
+      </c>
+      <c r="G19" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12649471934748335</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>124</v>
+      <c r="A20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C20">
         <v>142.22</v>
@@ -3439,23 +6109,23 @@
         <v>0.97420700000000005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <f>C20*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>31.128009493783061</v>
-      </c>
-      <c r="G20">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D20+'Gamma Counter Cal'!$B$27</f>
-        <v>0.20475617290143144</v>
+        <f>(C20-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>16.836480766821147</v>
+      </c>
+      <c r="G20" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F20-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12649169384747361</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C21">
         <v>154.375</v>
@@ -3464,23 +6134,23 @@
         <v>1.018875</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <f>C21*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>33.789130481048971</v>
-      </c>
-      <c r="G21">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D21+'Gamma Counter Cal'!$B$27</f>
-        <v>0.21453543676479578</v>
+        <f>(C21-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>18.275833326832725</v>
+      </c>
+      <c r="G21" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F21-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1264792790873418</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>124</v>
+      <c r="A22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C22">
         <v>146.49375000000001</v>
@@ -3489,23 +6159,23 @@
         <v>0.98883281249999999</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <f>C22*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>32.063671017380564</v>
-      </c>
-      <c r="G22">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D22+'Gamma Counter Cal'!$B$27</f>
-        <v>0.20795823432467833</v>
+        <f>(C22-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>17.342563284579228</v>
+      </c>
+      <c r="G22" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F22-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12648731025303722</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>124</v>
+      <c r="A23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C23">
         <v>135.505</v>
@@ -3514,159 +6184,159 @@
         <v>0.94853500000000002</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <f>C23*'Gamma Counter Cal'!$B$28+'Gamma Counter Cal'!$B$27</f>
-        <v>29.657879717601194</v>
-      </c>
-      <c r="G23">
-        <f>'Gamma Counter Cal'!$B$28*'Count-&gt;Actual Activity'!D23+'Gamma Counter Cal'!$B$27</f>
-        <v>0.19913574525971278</v>
+        <f>(C23-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>16.041313967933629</v>
+      </c>
+      <c r="G23" s="22">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F23-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12649862198517842</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="B33" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B34" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B35" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B37" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="B38" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="B39" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="B40" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B41" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3675,15 +6345,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,34 +6404,34 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" t="s">
-        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -3782,12 +6452,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3812,11 +6482,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.29560420892245498</v>
+        <v>0.15978636230469831</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>1.2547322877736602E-2</v>
+        <v>0.12664736096379242</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -3834,11 +6504,11 @@
       </c>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>2.9560420892245497E-2</v>
+        <v>1.5978636230469832E-2</v>
       </c>
       <c r="R2">
         <f>Q2*SQRT((J2/I2)^2+(L2/K2)^2)</f>
-        <v>1.2561243520906001E-3</v>
+        <v>1.2664776415641711E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -3846,7 +6516,7 @@
       </c>
       <c r="U2">
         <f>(S2-Q2*G2)/O2</f>
-        <v>-98.534736307484991</v>
+        <v>-53.262120768232776</v>
       </c>
       <c r="W2" t="e">
         <f>(U2*E2)/S2</f>
@@ -3855,7 +6525,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3880,11 +6550,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.27617397546956735</v>
+        <v>0.14927689791135995</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>1.1869859965766925E-2</v>
+        <v>0.12664746591948781</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -3902,11 +6572,11 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q19" si="0">I3/K3</f>
-        <v>2.7617397546956735E-2</v>
+        <v>1.4927689791135994E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R19" si="1">Q3*SQRT((J3/I3)^2+(L3/K3)^2)</f>
-        <v>1.1882704400338463E-3</v>
+        <v>1.2664781781853497E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -3914,7 +6584,7 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U23" si="2">(S3-Q3*G3)/O3</f>
-        <v>-92.057991823189113</v>
+        <v>-49.758965970453318</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" ref="W3:W23" si="3">(U3*E3)/S3</f>
@@ -3923,7 +6593,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3948,11 +6618,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.26586591734667248</v>
+        <v>0.1437014543599637</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>1.1488001145365703E-2</v>
+        <v>0.12664752160371034</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -3970,11 +6640,11 @@
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>2.6586591734667247E-2</v>
+        <v>1.437014543599637E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>1.1500300389987647E-3</v>
+        <v>1.2664784770691613E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -3982,7 +6652,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>-88.62197244889083</v>
+        <v>-47.900484786654573</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="3"/>
@@ -3991,7 +6661,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>7.92E-3</v>
@@ -4016,11 +6686,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.41993945867027449</v>
+        <v>0.22703706638037907</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>1.6514871643799892E-2</v>
+        <v>0.1266466895500715</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -4038,28 +6708,28 @@
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>4.1993945867027448E-2</v>
+        <v>2.2703706638037908E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>1.6536214258619742E-3</v>
+        <v>1.2664750355735494E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>26.742109406694652</v>
+        <v>14.528816970498815</v>
       </c>
       <c r="W5">
         <f t="shared" si="3"/>
-        <v>0.16039947218075193</v>
+        <v>0.16105936153540995</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>7.92E-3</v>
@@ -4084,11 +6754,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.44493421907445935</v>
+        <v>0.24055628348730301</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>1.7318293552726211E-2</v>
+        <v>0.12664655462032207</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -4106,28 +6776,28 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>4.4493421907445936E-2</v>
+        <v>2.4055628348730301E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>1.734114060307487E-3</v>
+        <v>1.2664746845673751E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>18.410522605299683</v>
+        <v>10.022411268190842</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>0.11042652109270797</v>
+        <v>0.11110355118230215</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>7.92E-3</v>
@@ -4152,11 +6822,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.39239048917369279</v>
+        <v>0.21213632343771197</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>1.5856818440388675E-2</v>
+        <v>0.12664683828479711</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -4174,28 +6844,28 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>3.9239048917369276E-2</v>
+        <v>2.1213632343771195E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>1.5876226637190154E-3</v>
+        <v>1.2664754894909903E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>35.925099238888556</v>
+        <v>19.495731284721188</v>
       </c>
       <c r="W7">
         <f t="shared" si="3"/>
-        <v>0.21547914819749786</v>
+        <v>0.21612014520927014</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>1.5800000000000002E-2</v>
@@ -4220,11 +6890,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>0.52402347918550918</v>
+        <v>0.28333424418694786</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>1.9549719032160406E-2</v>
+        <v>0.12664612776510975</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -4242,28 +6912,28 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>5.2402347918550918E-2</v>
+        <v>2.8333424418694787E-2</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>1.9577791414338995E-3</v>
+        <v>1.2664739551633985E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>157.92733492080939</v>
+        <v>85.515334985311739</v>
       </c>
       <c r="W8">
         <f t="shared" si="3"/>
-        <v>0.47482401368235894</v>
+        <v>0.47519057302657225</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1.5800000000000002E-2</v>
@@ -4288,11 +6958,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.6109578100803531</v>
+        <v>0.33035546281066314</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>2.1701845441451036E-2</v>
+        <v>0.12664565873387906</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -4310,28 +6980,28 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>6.109578100803531E-2</v>
+        <v>3.3035546281066315E-2</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>2.1736218009290897E-3</v>
+        <v>1.2664738218796863E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>128.94922462252808</v>
+        <v>69.841595444073306</v>
       </c>
       <c r="W9">
         <f t="shared" si="3"/>
-        <v>0.38769848441499327</v>
+        <v>0.38809492783790966</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1.5800000000000002E-2</v>
@@ -4356,11 +7026,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>0.62318152502254687</v>
+        <v>0.33696705073886746</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>2.210884953814924E-2</v>
+        <v>0.1266455927978978</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -4378,28 +7048,28 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>6.2318152502254684E-2</v>
+        <v>3.3696705073886744E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>2.2143952870999329E-3</v>
+        <v>1.26647385927638E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>124.87465297513018</v>
+        <v>67.637732801338558</v>
       </c>
       <c r="W10">
         <f t="shared" si="3"/>
-        <v>0.37544788533647439</v>
+        <v>0.37584853071799124</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>7.9100000000000004E-2</v>
@@ -4424,11 +7094,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>2.0806314774957202</v>
+        <v>1.1252755606560825</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>4.8818341727813762E-2</v>
+        <v>0.12663775563155902</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -4446,28 +7116,28 @@
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.20806314774957202</v>
+        <v>0.11252755606560824</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>4.8995373234971759E-3</v>
+        <v>1.2665775196073906E-2</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>971.57038894197194</v>
+        <v>525.84754955350104</v>
       </c>
       <c r="W11">
         <f t="shared" si="3"/>
-        <v>0.58348573348400035</v>
+        <v>0.58366583561659113</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>7.9100000000000004E-2</v>
@@ -4492,11 +7162,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>2.2505776038935119</v>
+        <v>1.2171963689414784</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>4.9868792144676245E-2</v>
+        <v>0.12663684493750599</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -4514,28 +7184,28 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.22505776038935119</v>
+        <v>0.12171963689414785</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>5.0071517134729513E-3</v>
+        <v>1.2666024144824688E-2</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>914.92168014270806</v>
+        <v>495.20728012503565</v>
       </c>
       <c r="W12">
         <f t="shared" si="3"/>
-        <v>0.54946481870431563</v>
+        <v>0.54965659001933032</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>7.9100000000000004E-2</v>
@@ -4560,11 +7230,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>2.2324244749868161</v>
+        <v>1.2073776674660082</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>4.9567605281805899E-2</v>
+        <v>0.12663694218359542</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -4582,28 +7252,28 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0.22324244749868161</v>
+        <v>0.12073776674660082</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>4.9768286785050108E-3</v>
+        <v>1.266599627701622E-2</v>
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>920.97272311160657</v>
+        <v>498.48018061685906</v>
       </c>
       <c r="W13">
         <f t="shared" si="3"/>
-        <v>0.55309882946178202</v>
+        <v>0.55328935431018256</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>0.158</v>
@@ -4628,11 +7298,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>4.7931103118694889</v>
+        <v>2.5924066580077967</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>7.7060106232551898E-2</v>
+        <v>0.12662329901508643</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -4650,28 +7320,28 @@
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.4793110311869489</v>
+        <v>0.25924066580077965</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>7.7654076508700967E-3</v>
+        <v>1.2672940520094742E-2</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>1728.3148425366278</v>
+        <v>935.46527780701126</v>
       </c>
       <c r="W14">
         <f t="shared" si="3"/>
-        <v>0.51963479967007475</v>
+        <v>0.51981820744072116</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0.158</v>
@@ -4696,11 +7366,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>4.7622773592541163</v>
+        <v>2.5757296675620336</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>7.6629779014078511E-2</v>
+        <v>0.12662346239966407</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -4718,28 +7388,28 @@
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0.47622773592541162</v>
+        <v>0.25757296675620334</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>7.7219428736117722E-3</v>
+        <v>1.2672820823857876E-2</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>1738.5924934084187</v>
+        <v>941.02427462226569</v>
       </c>
       <c r="W15">
         <f t="shared" si="3"/>
-        <v>0.52272487615405816</v>
+        <v>0.52290722402768453</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>0.158</v>
@@ -4764,11 +7434,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>4.2720516570202198</v>
+        <v>2.3105753875160189</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>7.226684552214345E-2</v>
+        <v>0.12662606303709253</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -4786,94 +7456,94 @@
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0.42720516570202199</v>
+        <v>0.2310575387516019</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>7.2770177017527863E-3</v>
+        <v>1.2671035819837034E-2</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>1902.0010608197176</v>
+        <v>1029.4090346376038</v>
       </c>
       <c r="W16">
         <f t="shared" si="3"/>
-        <v>0.57185526380178486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="25">
+        <v>0.57202075993994939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="19">
         <v>2E-3</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>6.97</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="19">
         <v>0.03</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="19">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="20">
         <v>5</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="20">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>24.129659024118183</v>
-      </c>
-      <c r="J17" s="26">
+        <v>13.051198657299441</v>
+      </c>
+      <c r="J17" s="20">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.18457638854602876</v>
-      </c>
-      <c r="K17" s="25">
+        <v>0.1265251177055236</v>
+      </c>
+      <c r="K17" s="19">
         <v>10</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="19">
         <v>0.02</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="20">
         <v>0.03</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="20">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="19">
         <f t="shared" si="0"/>
-        <v>2.4129659024118184</v>
-      </c>
-      <c r="R17" s="25">
+        <v>1.3051198657299441</v>
+      </c>
+      <c r="R17" s="19">
         <f t="shared" si="1"/>
-        <v>1.9078103938068743E-2</v>
-      </c>
-      <c r="S17" s="25">
+        <v>1.2918955281277887E-2</v>
+      </c>
+      <c r="S17" s="19">
         <f>B17*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="U17" s="25">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="U17" s="19">
         <f t="shared" si="2"/>
-        <v>8628.9732216392204</v>
-      </c>
-      <c r="W17" s="25">
+        <v>4670.3843572960386</v>
+      </c>
+      <c r="W17" s="19">
         <f t="shared" si="3"/>
-        <v>0.51756678172376358</v>
+        <v>0.51773597550196149</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>0.79200000000000004</v>
@@ -4898,11 +7568,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>26.982984245586923</v>
+        <v>14.594511036450678</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.19458202147075074</v>
+        <v>0.12651135479382222</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -4918,28 +7588,28 @@
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>2.6982984245586925</v>
+        <v>1.4594511036450677</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>2.0192693934894888E-2</v>
+        <v>1.2983497949836432E-2</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>7677.8648144829731</v>
+        <v>4155.9468975789596</v>
       </c>
       <c r="W18">
         <f t="shared" si="3"/>
-        <v>0.46051919277913589</v>
+        <v>0.46070795389485458</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>0.79200000000000004</v>
@@ -4964,11 +7634,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>30.484713689511945</v>
+        <v>16.488533617047374</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.20797290734369656</v>
+        <v>0.12649471934748335</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -4984,28 +7654,28 @@
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>3.0484713689511946</v>
+        <v>1.6488533617047374</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>2.1672563591766402E-2</v>
+        <v>1.3072261084510433E-2</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>6510.6216665079655</v>
+        <v>3524.6060373800601</v>
       </c>
       <c r="W19">
         <f t="shared" si="3"/>
-        <v>0.39050781783691824</v>
+        <v>0.39072059287205263</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>0.79200000000000004</v>
@@ -5030,11 +7700,11 @@
       </c>
       <c r="I20" s="1">
         <f>'Count-&gt;Actual Activity'!F20</f>
-        <v>31.128009493783061</v>
+        <v>16.836480766821147</v>
       </c>
       <c r="J20" s="1">
         <f>'Count-&gt;Actual Activity'!G20</f>
-        <v>0.20475617290143144</v>
+        <v>0.12649169384747361</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -5050,28 +7720,28 @@
       </c>
       <c r="Q20">
         <f t="shared" ref="Q20:Q23" si="4">I20/K20</f>
-        <v>3.1128009493783062</v>
+        <v>1.6836480766821147</v>
       </c>
       <c r="R20">
         <f t="shared" ref="R20:R23" si="5">Q20*SQRT((J20/I20)^2+(L20/K20)^2)</f>
-        <v>2.140114535285929E-2</v>
+        <v>1.308969707474132E-2</v>
       </c>
       <c r="S20">
         <f>B20*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U20">
         <f t="shared" si="2"/>
-        <v>6296.1897317509283</v>
+        <v>3408.6236541221356</v>
       </c>
       <c r="W20">
         <f t="shared" si="3"/>
-        <v>0.37764616633790982</v>
+        <v>0.37786335292278012</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>0.79200000000000004</v>
@@ -5096,11 +7766,11 @@
       </c>
       <c r="I21" s="1">
         <f>'Count-&gt;Actual Activity'!F21</f>
-        <v>33.789130481048971</v>
+        <v>18.275833326832725</v>
       </c>
       <c r="J21" s="1">
         <f>'Count-&gt;Actual Activity'!G21</f>
-        <v>0.21453543676479578</v>
+        <v>0.1264792790873418</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -5116,28 +7786,28 @@
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>3.3789130481048972</v>
+        <v>1.8275833326832724</v>
       </c>
       <c r="R21">
         <f t="shared" si="5"/>
-        <v>2.2492726598285748E-2</v>
+        <v>1.3165497473933288E-2</v>
       </c>
       <c r="S21">
         <f>B21*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U21">
         <f t="shared" si="2"/>
-        <v>5409.1494026622913</v>
+        <v>2928.8394674516098</v>
       </c>
       <c r="W21">
         <f t="shared" si="3"/>
-        <v>0.32444138790212973</v>
+        <v>0.32467682373953877</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <v>0.79200000000000004</v>
@@ -5162,11 +7832,11 @@
       </c>
       <c r="I22" s="1">
         <f>'Count-&gt;Actual Activity'!F22</f>
-        <v>32.063671017380564</v>
+        <v>17.342563284579228</v>
       </c>
       <c r="J22" s="1">
         <f>'Count-&gt;Actual Activity'!G22</f>
-        <v>0.20795823432467833</v>
+        <v>0.12648731025303722</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -5182,28 +7852,28 @@
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
-        <v>3.2063671017380564</v>
+        <v>1.7342563284579229</v>
       </c>
       <c r="R22">
         <f t="shared" si="5"/>
-        <v>2.1762110012561068E-2</v>
+        <v>1.3115676749663602E-2</v>
       </c>
       <c r="S22">
         <f>B22*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>5984.3025572184279</v>
+        <v>3239.9294815361091</v>
       </c>
       <c r="W22">
         <f t="shared" si="3"/>
-        <v>0.35893913862586418</v>
+        <v>0.35916274172599877</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B23">
         <v>0.79200000000000004</v>
@@ -5228,11 +7898,11 @@
       </c>
       <c r="I23" s="1">
         <f>'Count-&gt;Actual Activity'!F23</f>
-        <v>29.657879717601194</v>
+        <v>16.041313967933629</v>
       </c>
       <c r="J23" s="1">
         <f>'Count-&gt;Actual Activity'!G23</f>
-        <v>0.19913574525971278</v>
+        <v>0.12649862198517842</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -5248,289 +7918,23 @@
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>2.9657879717601192</v>
+        <v>1.6041313967933628</v>
       </c>
       <c r="R23">
         <f t="shared" si="5"/>
-        <v>2.0778210788591982E-2</v>
+        <v>1.3050362592441772E-2</v>
       </c>
       <c r="S23">
         <f>B23*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U23">
         <f t="shared" si="2"/>
-        <v>6786.2329904782182</v>
+        <v>3673.6792537513093</v>
       </c>
       <c r="W23">
         <f t="shared" si="3"/>
-        <v>0.40703901596327086</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>2.7921470057956494E-2</v>
-      </c>
-      <c r="C2">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>1.5100529903201787E-3</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-93.071566859854968</v>
-      </c>
-      <c r="E2">
-        <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>5.0335099677339281</v>
-      </c>
-      <c r="F2" t="e">
-        <f>AVERAGE('Bottle Results'!W2:W4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" t="e">
-        <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE('Bottle Results'!D2:D4)</f>
-        <v>6.9733333333333336</v>
-      </c>
-      <c r="I2">
-        <f>_xlfn.STDEV.S('Bottle Results'!D2:D4)</f>
-        <v>5.5075705472860864E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>4.1908805563947549E-2</v>
-      </c>
-      <c r="C3">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>2.6282209825503992E-3</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>27.025910416960965</v>
-      </c>
-      <c r="E3">
-        <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>8.7607366085013467</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>0.1621017138236526</v>
-      </c>
-      <c r="G3">
-        <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>5.25469964447315E-2</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE('Bottle Results'!D5:D7)</f>
-        <v>6.9600000000000009</v>
-      </c>
-      <c r="I3">
-        <f>_xlfn.STDEV.S('Bottle Results'!D5:D7)</f>
-        <v>4.3588989435406622E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>5.8605427142946975E-2</v>
-      </c>
-      <c r="C4">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>5.4066803045464485E-3</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>137.25040417282256</v>
-      </c>
-      <c r="E4">
-        <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>18.022267681821585</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>0.41265679447794223</v>
-      </c>
-      <c r="G4">
-        <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>5.4185714465651215E-2</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE('Bottle Results'!D8:D10)</f>
-        <v>6.9333333333333336</v>
-      </c>
-      <c r="I4">
-        <f>_xlfn.STDEV.S('Bottle Results'!D8:D10)</f>
-        <v>2.8867513459481187E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>0.21878778521253495</v>
-      </c>
-      <c r="C5">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>9.3320537266321259E-3</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>935.82159739876215</v>
-      </c>
-      <c r="E5">
-        <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>31.106845755440439</v>
-      </c>
-      <c r="F5">
-        <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.56201646055003274</v>
-      </c>
-      <c r="G5">
-        <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>1.8681508739425822E-2</v>
-      </c>
-      <c r="H5">
-        <f>AVERAGE('Bottle Results'!D11:D13)</f>
-        <v>6.9833333333333334</v>
-      </c>
-      <c r="I5">
-        <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
-        <v>5.5075705472860871E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>0.46091464427146084</v>
-      </c>
-      <c r="C6">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>2.9233942369872853E-2</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>1789.6361322549212</v>
-      </c>
-      <c r="E6">
-        <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>97.446474566242927</v>
-      </c>
-      <c r="F6">
-        <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.53807164654197259</v>
-      </c>
-      <c r="G6">
-        <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>2.9298237823072754E-2</v>
-      </c>
-      <c r="H6">
-        <f>AVERAGE('Bottle Results'!D14:D16)</f>
-        <v>6.9600000000000009</v>
-      </c>
-      <c r="I6">
-        <f>_xlfn.STDEV.S('Bottle Results'!D14:D16)</f>
-        <v>2.6457513110645845E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE('Bottle Results'!Q18:Q20)</f>
-        <v>2.9531902476293976</v>
-      </c>
-      <c r="C7">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q18:Q20)</f>
-        <v>0.2230738775175454</v>
-      </c>
-      <c r="D7">
-        <f>AVERAGE('Bottle Results'!U18:U20)</f>
-        <v>6828.2254042472887</v>
-      </c>
-      <c r="E7">
-        <f>_xlfn.STDEV.S('Bottle Results'!U18:U20)</f>
-        <v>743.57959172515109</v>
-      </c>
-      <c r="F7">
-        <f>AVERAGE('Bottle Results'!W18:W20)</f>
-        <v>0.40955772565132137</v>
-      </c>
-      <c r="G7">
-        <f>_xlfn.STDEV.S('Bottle Results'!W18:W20)</f>
-        <v>4.4599987317094386E-2</v>
-      </c>
-      <c r="H7">
-        <f>AVERAGE('Bottle Results'!D18:D20)</f>
-        <v>7.003333333333333</v>
-      </c>
-      <c r="I7">
-        <f>_xlfn.STDEV.S('Bottle Results'!D18:D20)</f>
-        <v>3.5118845842842597E-2</v>
+        <v>0.40724612079324241</v>
       </c>
     </row>
   </sheetData>
@@ -5540,1840 +7944,296 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
+        <v>1.5092157152534065E-2</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
+        <v>8.1676054857001974E-4</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE('Bottle Results'!U2:U4)</f>
+        <v>-50.307190508446887</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
+        <v>2.7225351619000651</v>
+      </c>
+      <c r="F2">
+        <f>'Bottle Results'!S2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="e">
+        <f>AVERAGE('Bottle Results'!W2:W4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="e">
+        <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE('Bottle Results'!D2:D4)</f>
+        <v>6.9733333333333336</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.STDEV.S('Bottle Results'!D2:D4)</f>
+        <v>5.5075705472860864E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
+        <v>2.2657655776846464E-2</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
+        <v>1.4215575381999962E-3</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE('Bottle Results'!U5:U7)</f>
+        <v>14.68231984113695</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
+        <v>4.7385251273333138</v>
+      </c>
+      <c r="F3">
+        <f>'Bottle Results'!S5</f>
+        <v>2.7062351729187553</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE('Bottle Results'!W5:W7)</f>
+        <v>0.16276101930899409</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
+        <v>5.2528972811583259E-2</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE('Bottle Results'!D5:D7)</f>
+        <v>6.9600000000000009</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.STDEV.S('Bottle Results'!D5:D7)</f>
+        <v>4.3588989435406622E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
+        <v>3.168855859121595E-2</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
+        <v>2.9243762965879389E-3</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE('Bottle Results'!U8:U10)</f>
+        <v>74.331554410241196</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
+        <v>9.7479209886265412</v>
+      </c>
+      <c r="F4">
+        <f>'Bottle Results'!S8</f>
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE('Bottle Results'!W8:W10)</f>
+        <v>0.41304467719415777</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
+        <v>5.4167128751805425E-2</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE('Bottle Results'!D8:D10)</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.STDEV.S('Bottle Results'!D8:D10)</f>
+        <v>2.8867513459481187E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2">
-        <v>69.266666666666666</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.0713088258637899</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2/60</f>
-        <v>1.1544444444444444</v>
-      </c>
-      <c r="E2" s="2">
-        <f>C2/60</f>
-        <v>6.7855147097729829E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.1574074074074073E-3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2">
-        <v>213.53333333333333</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.5389670875898238</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
-        <v>3.5588888888888888</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="2"/>
-        <v>7.5649451459830402E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.4640522875816994E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.1343954248366012E-4</v>
-      </c>
-      <c r="H3" s="5">
-        <f>H7/100</f>
-        <v>1.59E-5</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="J3" s="5">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>851.36666666666679</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12.530584805000577</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="2"/>
-        <v>14.189444444444446</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20884308008334296</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.9815435847137763E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8.5144502711856026E-4</v>
-      </c>
-      <c r="H4" s="5">
-        <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1635.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32.620954410720707</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>27.261666666666667</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.54368257351201177</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.2604166666666666E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.3201388888888891E-4</v>
-      </c>
-      <c r="H5" s="5">
-        <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7998.833333333333</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50.234140670352431</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>133.3138888888889</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.83723567783920716</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5.0219907407407408E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.5444444444444447E-3</v>
-      </c>
-      <c r="H6" s="5">
-        <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2">
-        <v>16057.133333333333</v>
-      </c>
-      <c r="C7" s="2">
-        <v>53.513259001171903</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>267.61888888888888</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.89188765001953174</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.4872685185185185E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.9521990740740741E-3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80635.3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>80.454997758225829</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>1343.9216666666666</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3409166293037638</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.39049768518518518</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.6158564814814812E-3</v>
-      </c>
-      <c r="H8" s="5">
-        <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="13">
-        <v>6</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="14">
-        <v>6</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
-      </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="B5">
+        <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
+        <v>0.11832831990211896</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
+        <v>5.0475402981936647E-3</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE('Bottle Results'!U11:U13)</f>
+        <v>506.51167009846523</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
+        <v>16.825134327312245</v>
+      </c>
+      <c r="F5">
+        <f>'Bottle Results'!S11</f>
+        <v>27.028182093165853</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE('Bottle Results'!W11:W13)</f>
+        <v>0.56220392664870122</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
+        <v>1.8675100977175844E-2</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE('Bottle Results'!D11:D13)</f>
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="J5">
+        <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
+        <v>5.5075705472860871E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
+        <v>0.24929039043619494</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
+        <v>1.5812114515146171E-2</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE('Bottle Results'!U14:U16)</f>
+        <v>968.63286235562691</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
+        <v>52.70704838382057</v>
+      </c>
+      <c r="F6">
+        <f>'Bottle Results'!S14</f>
+        <v>53.988024914288303</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE('Bottle Results'!W14:W16)</f>
+        <v>0.53824873046945176</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
+        <v>2.9288188520046055E-2</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE('Bottle Results'!D14:D16)</f>
+        <v>6.9600000000000009</v>
+      </c>
+      <c r="J6">
+        <f>_xlfn.STDEV.S('Bottle Results'!D14:D16)</f>
+        <v>2.6457513110645845E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE('Bottle Results'!Q17:Q20)</f>
+        <v>1.524268101940466</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q20)</f>
+        <v>0.17621072233870819</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE('Bottle Results'!U17:U20)</f>
+        <v>3939.8902365942981</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.STDEV.S('Bottle Results'!U17:U20)</f>
+        <v>587.3690744623666</v>
+      </c>
+      <c r="F7">
+        <f>'Bottle Results'!S17</f>
+        <v>270.62351729187554</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE('Bottle Results'!W17:W20)</f>
+        <v>0.4367569687979122</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.STDEV.S('Bottle Results'!W17:W20)</f>
+        <v>6.511286384200668E-2</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE('Bottle Results'!D17:D20)</f>
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="J7">
+        <f>_xlfn.STDEV.S('Bottle Results'!D17:D20)</f>
+        <v>3.3166247903554144E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sorption Experiments/RaFHY_pH7/RaFHY_pH7_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH7/RaFHY_pH7_NoScript.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="136">
   <si>
     <t>Parameters</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>Ncounts</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -713,27 +719,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -949,11 +935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96644872"/>
-        <c:axId val="96645656"/>
+        <c:axId val="193312248"/>
+        <c:axId val="193311464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96644872"/>
+        <c:axId val="193312248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,12 +967,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96645656"/>
+        <c:crossAx val="193311464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96645656"/>
+        <c:axId val="193311464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96644872"/>
+        <c:crossAx val="193312248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1249,11 +1235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234554608"/>
-        <c:axId val="234555000"/>
+        <c:axId val="220051440"/>
+        <c:axId val="220045560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234554608"/>
+        <c:axId val="220051440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,12 +1267,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234555000"/>
+        <c:crossAx val="220045560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234555000"/>
+        <c:axId val="220045560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234554608"/>
+        <c:crossAx val="220051440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7589,7 +7575,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
@@ -9010,18 +8996,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -9053,10 +9049,16 @@
         <v>120</v>
       </c>
       <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -9097,13 +9099,21 @@
         <v>5.5075705472860864E-2</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>5</v>
       </c>
@@ -9144,11 +9154,19 @@
         <v>4.3588989435406622E-2</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>10</v>
       </c>
@@ -9189,11 +9207,19 @@
         <v>2.8867513459481187E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>50</v>
       </c>
@@ -9234,11 +9260,19 @@
         <v>5.5075705472860871E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>100</v>
       </c>
@@ -9279,11 +9313,19 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>500</v>
       </c>
@@ -9324,6 +9366,14 @@
         <v>3.3166247903554144E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E20)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I20)</f>
         <v>4</v>
       </c>
